--- a/apps/load_data/2014/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/11/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY1114\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY1114\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CA142-39E5-4462-B3DE-D2BE286044B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30786A-45CB-4424-B8E2-D30653CA79DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$396</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$250</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -8309,7 +8310,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8317,6 +8318,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8674,8 +8676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:XFD396"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51635,13 +51637,13 @@
       <c r="P251" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q251" s="5">
+      <c r="Q251" s="7">
         <v>22036</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S251" s="5">
+      <c r="S251" s="7">
         <v>32112</v>
       </c>
       <c r="T251" s="4" t="s">
@@ -51840,13 +51842,13 @@
       <c r="P252" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q252" s="5">
+      <c r="Q252" s="7">
         <v>23084</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S252" s="5">
+      <c r="S252" s="7">
         <v>31391</v>
       </c>
       <c r="T252" s="4" t="s">
@@ -52040,13 +52042,13 @@
       <c r="P253" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q253" s="5">
+      <c r="Q253" s="7">
         <v>20306</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S253" s="5">
+      <c r="S253" s="7">
         <v>34881</v>
       </c>
       <c r="T253" s="4" t="s">
@@ -52245,13 +52247,13 @@
       <c r="P254" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q254" s="5">
+      <c r="Q254" s="7">
         <v>20332</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S254" s="5">
+      <c r="S254" s="7">
         <v>30651</v>
       </c>
       <c r="T254" s="4" t="s">
@@ -52445,13 +52447,13 @@
       <c r="P255" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q255" s="5">
+      <c r="Q255" s="7">
         <v>22441</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S255" s="5">
+      <c r="S255" s="7">
         <v>31747</v>
       </c>
       <c r="T255" s="4" t="s">
@@ -52645,13 +52647,13 @@
       <c r="P256" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q256" s="5">
+      <c r="Q256" s="7">
         <v>19912</v>
       </c>
       <c r="R256" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S256" s="5">
+      <c r="S256" s="7">
         <v>30682</v>
       </c>
       <c r="T256" s="4" t="s">
@@ -52845,13 +52847,13 @@
       <c r="P257" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q257" s="5">
+      <c r="Q257" s="7">
         <v>17060</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S257" s="5">
+      <c r="S257" s="7">
         <v>27515</v>
       </c>
       <c r="T257" s="4" t="s">
@@ -53045,13 +53047,13 @@
       <c r="P258" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q258" s="5">
+      <c r="Q258" s="7">
         <v>21670</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S258" s="5">
+      <c r="S258" s="7">
         <v>30651</v>
       </c>
       <c r="T258" s="4" t="s">
@@ -53248,13 +53250,13 @@
       <c r="P259" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q259" s="5">
+      <c r="Q259" s="7">
         <v>17726</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S259" s="5">
+      <c r="S259" s="7">
         <v>30271</v>
       </c>
       <c r="T259" s="4" t="s">
@@ -53444,13 +53446,13 @@
       <c r="P260" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q260" s="5">
+      <c r="Q260" s="7">
         <v>20367</v>
       </c>
       <c r="R260" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S260" s="5">
+      <c r="S260" s="7">
         <v>29556</v>
       </c>
       <c r="T260" s="4" t="s">
@@ -53644,13 +53646,13 @@
       <c r="P261" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q261" s="5">
+      <c r="Q261" s="7">
         <v>20503</v>
       </c>
       <c r="R261" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S261" s="5">
+      <c r="S261" s="7">
         <v>31747</v>
       </c>
       <c r="T261" s="4" t="s">
@@ -53849,13 +53851,13 @@
       <c r="P262" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q262" s="5">
+      <c r="Q262" s="7">
         <v>21827</v>
       </c>
       <c r="R262" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S262" s="5">
+      <c r="S262" s="7">
         <v>35089</v>
       </c>
       <c r="T262" s="4" t="s">
@@ -54058,13 +54060,13 @@
       <c r="P263" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q263" s="5">
+      <c r="Q263" s="7">
         <v>23601</v>
       </c>
       <c r="R263" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S263" s="5">
+      <c r="S263" s="7">
         <v>32104</v>
       </c>
       <c r="T263" s="4" t="s">
@@ -54258,13 +54260,13 @@
       <c r="P264" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q264" s="5">
+      <c r="Q264" s="7">
         <v>20134</v>
       </c>
       <c r="R264" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S264" s="5">
+      <c r="S264" s="7">
         <v>33813</v>
       </c>
       <c r="T264" s="4" t="s">
@@ -54464,13 +54466,13 @@
       <c r="P265" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q265" s="5">
+      <c r="Q265" s="7">
         <v>26843</v>
       </c>
       <c r="R265" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S265" s="5">
+      <c r="S265" s="7">
         <v>34699</v>
       </c>
       <c r="T265" s="4" t="s">
@@ -54669,13 +54671,13 @@
       <c r="P266" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q266" s="5">
+      <c r="Q266" s="7">
         <v>25405</v>
       </c>
       <c r="R266" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S266" s="5">
+      <c r="S266" s="7">
         <v>35049</v>
       </c>
       <c r="T266" s="4" t="s">
@@ -54877,13 +54879,13 @@
       <c r="P267" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q267" s="5">
+      <c r="Q267" s="7">
         <v>23416</v>
       </c>
       <c r="R267" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S267" s="5">
+      <c r="S267" s="7">
         <v>31044</v>
       </c>
       <c r="T267" s="4" t="s">
@@ -55082,13 +55084,13 @@
       <c r="P268" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q268" s="5">
+      <c r="Q268" s="7">
         <v>26100</v>
       </c>
       <c r="R268" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S268" s="5">
+      <c r="S268" s="7">
         <v>35089</v>
       </c>
       <c r="T268" s="4" t="s">
@@ -55292,13 +55294,13 @@
       <c r="P269" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q269" s="5">
+      <c r="Q269" s="7">
         <v>25703</v>
       </c>
       <c r="R269" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S269" s="5">
+      <c r="S269" s="7">
         <v>35049</v>
       </c>
       <c r="T269" s="4" t="s">
@@ -55497,13 +55499,13 @@
       <c r="P270" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q270" s="5">
+      <c r="Q270" s="7">
         <v>23296</v>
       </c>
       <c r="R270" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S270" s="5">
+      <c r="S270" s="7">
         <v>33055</v>
       </c>
       <c r="T270" s="4" t="s">
@@ -55700,13 +55702,13 @@
       <c r="P271" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q271" s="5">
+      <c r="Q271" s="7">
         <v>18523</v>
       </c>
       <c r="R271" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S271" s="5">
+      <c r="S271" s="7">
         <v>30941</v>
       </c>
       <c r="T271" s="4" t="s">
@@ -55905,13 +55907,13 @@
       <c r="P272" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q272" s="5">
+      <c r="Q272" s="7">
         <v>23894</v>
       </c>
       <c r="R272" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S272" s="5">
+      <c r="S272" s="7">
         <v>31382</v>
       </c>
       <c r="T272" s="4" t="s">
@@ -56105,13 +56107,13 @@
       <c r="P273" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q273" s="5">
+      <c r="Q273" s="7">
         <v>25520</v>
       </c>
       <c r="R273" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S273" s="5">
+      <c r="S273" s="7">
         <v>35049</v>
       </c>
       <c r="T273" s="4" t="s">
@@ -56310,13 +56312,13 @@
       <c r="P274" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q274" s="5">
+      <c r="Q274" s="7">
         <v>21898</v>
       </c>
       <c r="R274" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S274" s="5">
+      <c r="S274" s="7">
         <v>35669</v>
       </c>
       <c r="T274" s="4" t="s">
@@ -56515,13 +56517,13 @@
       <c r="P275" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q275" s="5">
+      <c r="Q275" s="7">
         <v>22181</v>
       </c>
       <c r="R275" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S275" s="5">
+      <c r="S275" s="7">
         <v>35049</v>
       </c>
       <c r="T275" s="4" t="s">
@@ -56720,13 +56722,13 @@
       <c r="P276" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q276" s="5">
+      <c r="Q276" s="7">
         <v>19897</v>
       </c>
       <c r="R276" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S276" s="5">
+      <c r="S276" s="7">
         <v>31017</v>
       </c>
       <c r="T276" s="4" t="s">
@@ -56927,13 +56929,13 @@
       <c r="P277" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q277" s="5">
+      <c r="Q277" s="7">
         <v>26243</v>
       </c>
       <c r="R277" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S277" s="5">
+      <c r="S277" s="7">
         <v>35268</v>
       </c>
       <c r="T277" s="4" t="s">
@@ -57129,13 +57131,13 @@
       <c r="P278" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q278" s="5">
+      <c r="Q278" s="7">
         <v>21410</v>
       </c>
       <c r="R278" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S278" s="5">
+      <c r="S278" s="7">
         <v>35521</v>
       </c>
       <c r="T278" s="4" t="s">
@@ -57335,13 +57337,13 @@
       <c r="P279" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q279" s="5">
+      <c r="Q279" s="7">
         <v>25159</v>
       </c>
       <c r="R279" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S279" s="5">
+      <c r="S279" s="7">
         <v>40664</v>
       </c>
       <c r="T279" s="4" t="s">
@@ -57533,13 +57535,13 @@
       <c r="P280" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q280" s="5">
+      <c r="Q280" s="7">
         <v>24913</v>
       </c>
       <c r="R280" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S280" s="5">
+      <c r="S280" s="7">
         <v>40664</v>
       </c>
       <c r="T280" s="4" t="s">
@@ -57731,13 +57733,13 @@
       <c r="P281" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q281" s="5">
+      <c r="Q281" s="7">
         <v>27848</v>
       </c>
       <c r="R281" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S281" s="5">
+      <c r="S281" s="7">
         <v>40664</v>
       </c>
       <c r="T281" s="4" t="s">
@@ -57929,13 +57931,13 @@
       <c r="P282" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q282" s="5">
+      <c r="Q282" s="7">
         <v>25502</v>
       </c>
       <c r="R282" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S282" s="5">
+      <c r="S282" s="7">
         <v>40664</v>
       </c>
       <c r="T282" s="4" t="s">
@@ -58129,13 +58131,13 @@
       <c r="P283" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q283" s="5">
+      <c r="Q283" s="7">
         <v>26036</v>
       </c>
       <c r="R283" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S283" s="5">
+      <c r="S283" s="7">
         <v>40664</v>
       </c>
       <c r="T283" s="4" t="s">
@@ -58327,13 +58329,13 @@
       <c r="P284" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q284" s="5">
+      <c r="Q284" s="7">
         <v>27451</v>
       </c>
       <c r="R284" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S284" s="5">
+      <c r="S284" s="7">
         <v>40664</v>
       </c>
       <c r="T284" s="4" t="s">
@@ -58527,13 +58529,13 @@
       <c r="P285" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q285" s="5">
+      <c r="Q285" s="7">
         <v>28044</v>
       </c>
       <c r="R285" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S285" s="5">
+      <c r="S285" s="7">
         <v>40664</v>
       </c>
       <c r="T285" s="4" t="s">
@@ -58725,13 +58727,13 @@
       <c r="P286" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q286" s="5">
+      <c r="Q286" s="7">
         <v>23036</v>
       </c>
       <c r="R286" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S286" s="5">
+      <c r="S286" s="7">
         <v>40664</v>
       </c>
       <c r="T286" s="4" t="s">
@@ -58923,13 +58925,13 @@
       <c r="P287" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q287" s="5">
+      <c r="Q287" s="7">
         <v>27765</v>
       </c>
       <c r="R287" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S287" s="5">
+      <c r="S287" s="7">
         <v>40664</v>
       </c>
       <c r="T287" s="4" t="s">
@@ -59128,13 +59130,13 @@
       <c r="P288" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q288" s="5">
+      <c r="Q288" s="7">
         <v>25780</v>
       </c>
       <c r="R288" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S288" s="5">
+      <c r="S288" s="7">
         <v>40664</v>
       </c>
       <c r="T288" s="4" t="s">
@@ -59326,13 +59328,13 @@
       <c r="P289" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q289" s="5">
+      <c r="Q289" s="7">
         <v>29429</v>
       </c>
       <c r="R289" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S289" s="5">
+      <c r="S289" s="7">
         <v>41051</v>
       </c>
       <c r="T289" s="4" t="s">
@@ -59524,13 +59526,13 @@
       <c r="P290" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q290" s="5">
+      <c r="Q290" s="7">
         <v>25452</v>
       </c>
       <c r="R290" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S290" s="5">
+      <c r="S290" s="7">
         <v>41051</v>
       </c>
       <c r="T290" s="4" t="s">
@@ -59722,13 +59724,13 @@
       <c r="P291" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q291" s="5">
+      <c r="Q291" s="7">
         <v>24053</v>
       </c>
       <c r="R291" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S291" s="5">
+      <c r="S291" s="7">
         <v>41051</v>
       </c>
       <c r="T291" s="4" t="s">
@@ -59920,13 +59922,13 @@
       <c r="P292" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q292" s="5">
+      <c r="Q292" s="7">
         <v>23670</v>
       </c>
       <c r="R292" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S292" s="5">
+      <c r="S292" s="7">
         <v>41051</v>
       </c>
       <c r="T292" s="4" t="s">
@@ -60118,13 +60120,13 @@
       <c r="P293" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q293" s="5">
+      <c r="Q293" s="7">
         <v>26890</v>
       </c>
       <c r="R293" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S293" s="5">
+      <c r="S293" s="7">
         <v>41051</v>
       </c>
       <c r="T293" s="4" t="s">
@@ -60316,13 +60318,13 @@
       <c r="P294" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q294" s="5">
+      <c r="Q294" s="7">
         <v>26965</v>
       </c>
       <c r="R294" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S294" s="5">
+      <c r="S294" s="7">
         <v>41051</v>
       </c>
       <c r="T294" s="4" t="s">
@@ -60514,13 +60516,13 @@
       <c r="P295" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q295" s="5">
+      <c r="Q295" s="7">
         <v>27419</v>
       </c>
       <c r="R295" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S295" s="5">
+      <c r="S295" s="7">
         <v>41051</v>
       </c>
       <c r="T295" s="4" t="s">
@@ -60717,13 +60719,13 @@
       <c r="P296" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q296" s="5">
+      <c r="Q296" s="7">
         <v>26614</v>
       </c>
       <c r="R296" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S296" s="5">
+      <c r="S296" s="7">
         <v>41244</v>
       </c>
       <c r="T296" s="4" t="s">
@@ -60913,13 +60915,13 @@
       <c r="P297" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q297" s="5">
+      <c r="Q297" s="7">
         <v>23192</v>
       </c>
       <c r="R297" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S297" s="5">
+      <c r="S297" s="7">
         <v>41470</v>
       </c>
       <c r="T297" s="4" t="s">
@@ -61111,13 +61113,13 @@
       <c r="P298" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q298" s="5">
+      <c r="Q298" s="7">
         <v>22575</v>
       </c>
       <c r="R298" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S298" s="5">
+      <c r="S298" s="7">
         <v>41470</v>
       </c>
       <c r="T298" s="4" t="s">
@@ -61309,13 +61311,13 @@
       <c r="P299" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q299" s="5">
+      <c r="Q299" s="7">
         <v>22012</v>
       </c>
       <c r="R299" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S299" s="5">
+      <c r="S299" s="7">
         <v>41470</v>
       </c>
       <c r="T299" s="4" t="s">
@@ -61507,13 +61509,13 @@
       <c r="P300" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q300" s="5">
+      <c r="Q300" s="7">
         <v>27018</v>
       </c>
       <c r="R300" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S300" s="5">
+      <c r="S300" s="7">
         <v>41470</v>
       </c>
       <c r="T300" s="4" t="s">
@@ -61705,13 +61707,13 @@
       <c r="P301" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q301" s="5">
+      <c r="Q301" s="7">
         <v>29037</v>
       </c>
       <c r="R301" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S301" s="5">
+      <c r="S301" s="7">
         <v>41470</v>
       </c>
       <c r="T301" s="4" t="s">
@@ -61903,13 +61905,13 @@
       <c r="P302" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q302" s="5">
+      <c r="Q302" s="7">
         <v>26647</v>
       </c>
       <c r="R302" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S302" s="5">
+      <c r="S302" s="7">
         <v>41470</v>
       </c>
       <c r="T302" s="4" t="s">
@@ -62101,13 +62103,13 @@
       <c r="P303" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q303" s="5">
+      <c r="Q303" s="7">
         <v>28845</v>
       </c>
       <c r="R303" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S303" s="5">
+      <c r="S303" s="7">
         <v>41470</v>
       </c>
       <c r="T303" s="4" t="s">
@@ -62299,13 +62301,13 @@
       <c r="P304" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q304" s="5">
+      <c r="Q304" s="7">
         <v>21425</v>
       </c>
       <c r="R304" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S304" s="5">
+      <c r="S304" s="7">
         <v>41470</v>
       </c>
       <c r="T304" s="4" t="s">
@@ -62497,13 +62499,13 @@
       <c r="P305" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q305" s="5">
+      <c r="Q305" s="7">
         <v>28966</v>
       </c>
       <c r="R305" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S305" s="5">
+      <c r="S305" s="7">
         <v>41470</v>
       </c>
       <c r="T305" s="4" t="s">
@@ -62702,13 +62704,13 @@
       <c r="P306" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q306" s="5">
+      <c r="Q306" s="7">
         <v>25303</v>
       </c>
       <c r="R306" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S306" s="5">
+      <c r="S306" s="7">
         <v>41470</v>
       </c>
       <c r="T306" s="4" t="s">
@@ -62900,13 +62902,13 @@
       <c r="P307" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q307" s="5">
+      <c r="Q307" s="7">
         <v>24779</v>
       </c>
       <c r="R307" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S307" s="5">
+      <c r="S307" s="7">
         <v>41470</v>
       </c>
       <c r="T307" s="4" t="s">
@@ -63098,13 +63100,13 @@
       <c r="P308" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q308" s="5">
+      <c r="Q308" s="7">
         <v>27509</v>
       </c>
       <c r="R308" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S308" s="5">
+      <c r="S308" s="7">
         <v>41470</v>
       </c>
       <c r="T308" s="4" t="s">
@@ -63301,13 +63303,13 @@
       <c r="P309" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q309" s="5">
+      <c r="Q309" s="7">
         <v>24861</v>
       </c>
       <c r="R309" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S309" s="5">
+      <c r="S309" s="7">
         <v>41470</v>
       </c>
       <c r="T309" s="4" t="s">
@@ -63504,13 +63506,13 @@
       <c r="P310" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q310" s="5">
+      <c r="Q310" s="7">
         <v>23843</v>
       </c>
       <c r="R310" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S310" s="5">
+      <c r="S310" s="7">
         <v>41470</v>
       </c>
       <c r="T310" s="4" t="s">
@@ -63707,13 +63709,13 @@
       <c r="P311" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q311" s="5">
+      <c r="Q311" s="7">
         <v>22491</v>
       </c>
       <c r="R311" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S311" s="5">
+      <c r="S311" s="7">
         <v>41470</v>
       </c>
       <c r="T311" s="4" t="s">
@@ -63905,13 +63907,13 @@
       <c r="P312" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q312" s="5">
+      <c r="Q312" s="7">
         <v>27292</v>
       </c>
       <c r="R312" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S312" s="5">
+      <c r="S312" s="7">
         <v>41470</v>
       </c>
       <c r="T312" s="4" t="s">
@@ -64103,13 +64105,13 @@
       <c r="P313" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q313" s="5">
+      <c r="Q313" s="7">
         <v>26756</v>
       </c>
       <c r="R313" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S313" s="5">
+      <c r="S313" s="7">
         <v>41470</v>
       </c>
       <c r="T313" s="4" t="s">
@@ -64306,13 +64308,13 @@
       <c r="P314" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q314" s="5">
+      <c r="Q314" s="7">
         <v>29783</v>
       </c>
       <c r="R314" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S314" s="5">
+      <c r="S314" s="7">
         <v>41470</v>
       </c>
       <c r="T314" s="4" t="s">
@@ -64504,13 +64506,13 @@
       <c r="P315" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q315" s="5">
+      <c r="Q315" s="7">
         <v>24223</v>
       </c>
       <c r="R315" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S315" s="5">
+      <c r="S315" s="7">
         <v>41470</v>
       </c>
       <c r="T315" s="4" t="s">
@@ -64707,13 +64709,13 @@
       <c r="P316" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q316" s="5">
+      <c r="Q316" s="7">
         <v>28026</v>
       </c>
       <c r="R316" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S316" s="5">
+      <c r="S316" s="7">
         <v>41470</v>
       </c>
       <c r="T316" s="4" t="s">
@@ -64905,13 +64907,13 @@
       <c r="P317" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q317" s="5">
+      <c r="Q317" s="7">
         <v>24472</v>
       </c>
       <c r="R317" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S317" s="5">
+      <c r="S317" s="7">
         <v>35049</v>
       </c>
       <c r="T317" s="4" t="s">
@@ -65110,13 +65112,13 @@
       <c r="P318" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q318" s="5">
+      <c r="Q318" s="7">
         <v>24197</v>
       </c>
       <c r="R318" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S318" s="5">
+      <c r="S318" s="7">
         <v>35049</v>
       </c>
       <c r="T318" s="4" t="s">
@@ -65315,13 +65317,13 @@
       <c r="P319" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q319" s="5">
+      <c r="Q319" s="7">
         <v>23589</v>
       </c>
       <c r="R319" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S319" s="5">
+      <c r="S319" s="7">
         <v>35049</v>
       </c>
       <c r="T319" s="4" t="s">
@@ -65520,13 +65522,13 @@
       <c r="P320" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q320" s="5">
+      <c r="Q320" s="7">
         <v>20035</v>
       </c>
       <c r="R320" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S320" s="5">
+      <c r="S320" s="7">
         <v>33573</v>
       </c>
       <c r="T320" s="4" t="s">
@@ -65728,13 +65730,13 @@
       <c r="P321" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q321" s="5">
+      <c r="Q321" s="7">
         <v>20508</v>
       </c>
       <c r="R321" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S321" s="5">
+      <c r="S321" s="7">
         <v>35603</v>
       </c>
       <c r="T321" s="4" t="s">
@@ -65937,13 +65939,13 @@
       <c r="P322" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q322" s="5">
+      <c r="Q322" s="7">
         <v>23640</v>
       </c>
       <c r="R322" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S322" s="5">
+      <c r="S322" s="7">
         <v>34881</v>
       </c>
       <c r="T322" s="4" t="s">
@@ -66149,13 +66151,13 @@
       <c r="P323" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q323" s="5">
+      <c r="Q323" s="7">
         <v>20996</v>
       </c>
       <c r="R323" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S323" s="5">
+      <c r="S323" s="7">
         <v>34869</v>
       </c>
       <c r="T323" s="4" t="s">
@@ -66358,13 +66360,13 @@
       <c r="P324" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q324" s="5">
+      <c r="Q324" s="7">
         <v>20665</v>
       </c>
       <c r="R324" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S324" s="5">
+      <c r="S324" s="7">
         <v>34894</v>
       </c>
       <c r="T324" s="4" t="s">
@@ -66566,13 +66568,13 @@
       <c r="P325" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q325" s="5">
+      <c r="Q325" s="7">
         <v>22517</v>
       </c>
       <c r="R325" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S325" s="5">
+      <c r="S325" s="7">
         <v>33208</v>
       </c>
       <c r="T325" s="4" t="s">
@@ -66778,13 +66780,13 @@
       <c r="P326" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q326" s="5">
+      <c r="Q326" s="7">
         <v>24031</v>
       </c>
       <c r="R326" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S326" s="5">
+      <c r="S326" s="7">
         <v>35019</v>
       </c>
       <c r="T326" s="4" t="s">
@@ -66988,13 +66990,13 @@
       <c r="P327" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q327" s="5">
+      <c r="Q327" s="7">
         <v>28636</v>
       </c>
       <c r="R327" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S327" s="5">
+      <c r="S327" s="7">
         <v>38322</v>
       </c>
       <c r="T327" s="4" t="s">
@@ -67200,13 +67202,13 @@
       <c r="P328" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q328" s="5">
+      <c r="Q328" s="7">
         <v>21808</v>
       </c>
       <c r="R328" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S328" s="5">
+      <c r="S328" s="7">
         <v>33605</v>
       </c>
       <c r="T328" s="4" t="s">
@@ -67410,13 +67412,13 @@
       <c r="P329" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q329" s="5">
+      <c r="Q329" s="7">
         <v>25631</v>
       </c>
       <c r="R329" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S329" s="5">
+      <c r="S329" s="7">
         <v>35064</v>
       </c>
       <c r="T329" s="4" t="s">
@@ -67618,13 +67620,13 @@
       <c r="P330" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q330" s="5">
+      <c r="Q330" s="7">
         <v>17821</v>
       </c>
       <c r="R330" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S330" s="5">
+      <c r="S330" s="7">
         <v>32735</v>
       </c>
       <c r="T330" s="4" t="s">
@@ -67820,13 +67822,13 @@
       <c r="P331" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q331" s="5">
+      <c r="Q331" s="7">
         <v>23708</v>
       </c>
       <c r="R331" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S331" s="5">
+      <c r="S331" s="7">
         <v>36601</v>
       </c>
       <c r="T331" s="4" t="s">
@@ -68031,13 +68033,13 @@
       <c r="P332" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q332" s="5">
+      <c r="Q332" s="7">
         <v>20324</v>
       </c>
       <c r="R332" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S332" s="5">
+      <c r="S332" s="7">
         <v>35090</v>
       </c>
       <c r="T332" s="4" t="s">
@@ -68236,13 +68238,13 @@
       <c r="P333" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q333" s="5">
+      <c r="Q333" s="7">
         <v>21965</v>
       </c>
       <c r="R333" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S333" s="5">
+      <c r="S333" s="7">
         <v>35064</v>
       </c>
       <c r="T333" s="4" t="s">
@@ -68443,13 +68445,13 @@
       <c r="P334" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q334" s="5">
+      <c r="Q334" s="7">
         <v>24576</v>
       </c>
       <c r="R334" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S334" s="5">
+      <c r="S334" s="7">
         <v>35034</v>
       </c>
       <c r="T334" s="4" t="s">
@@ -68655,13 +68657,13 @@
       <c r="P335" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q335" s="5">
+      <c r="Q335" s="7">
         <v>23013</v>
       </c>
       <c r="R335" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S335" s="5">
+      <c r="S335" s="7">
         <v>35360</v>
       </c>
       <c r="T335" s="4" t="s">
@@ -68865,13 +68867,13 @@
       <c r="P336" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q336" s="5">
+      <c r="Q336" s="7">
         <v>22907</v>
       </c>
       <c r="R336" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S336" s="5">
+      <c r="S336" s="7">
         <v>33605</v>
       </c>
       <c r="T336" s="4" t="s">
@@ -69075,13 +69077,13 @@
       <c r="P337" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q337" s="5">
+      <c r="Q337" s="7">
         <v>24527</v>
       </c>
       <c r="R337" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S337" s="5">
+      <c r="S337" s="7">
         <v>34530</v>
       </c>
       <c r="T337" s="4" t="s">
@@ -69284,13 +69286,13 @@
       <c r="P338" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q338" s="5">
+      <c r="Q338" s="7">
         <v>24849</v>
       </c>
       <c r="R338" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S338" s="5">
+      <c r="S338" s="7">
         <v>37229</v>
       </c>
       <c r="T338" s="4" t="s">
@@ -69496,13 +69498,13 @@
       <c r="P339" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q339" s="5">
+      <c r="Q339" s="7">
         <v>22715</v>
       </c>
       <c r="R339" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S339" s="5">
+      <c r="S339" s="7">
         <v>36342</v>
       </c>
       <c r="T339" s="4" t="s">
@@ -69708,13 +69710,13 @@
       <c r="P340" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q340" s="5">
+      <c r="Q340" s="7">
         <v>24512</v>
       </c>
       <c r="R340" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S340" s="5">
+      <c r="S340" s="7">
         <v>35467</v>
       </c>
       <c r="T340" s="4" t="s">
@@ -69918,13 +69920,13 @@
       <c r="P341" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q341" s="5">
+      <c r="Q341" s="7">
         <v>25450</v>
       </c>
       <c r="R341" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S341" s="5">
+      <c r="S341" s="7">
         <v>36800</v>
       </c>
       <c r="T341" s="4" t="s">
@@ -70125,13 +70127,13 @@
       <c r="P342" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q342" s="5">
+      <c r="Q342" s="7">
         <v>24870</v>
       </c>
       <c r="R342" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S342" s="5">
+      <c r="S342" s="7">
         <v>36800</v>
       </c>
       <c r="T342" s="4" t="s">
@@ -70331,13 +70333,13 @@
       <c r="P343" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q343" s="5">
+      <c r="Q343" s="7">
         <v>25264</v>
       </c>
       <c r="R343" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S343" s="5">
+      <c r="S343" s="7">
         <v>38078</v>
       </c>
       <c r="T343" s="4" t="s">
@@ -70536,13 +70538,13 @@
       <c r="P344" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q344" s="5">
+      <c r="Q344" s="7">
         <v>17470</v>
       </c>
       <c r="R344" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S344" s="5">
+      <c r="S344" s="7">
         <v>38078</v>
       </c>
       <c r="T344" s="4" t="s">
@@ -70738,13 +70740,13 @@
       <c r="P345" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q345" s="5">
+      <c r="Q345" s="7">
         <v>25223</v>
       </c>
       <c r="R345" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S345" s="5">
+      <c r="S345" s="7">
         <v>38322</v>
       </c>
       <c r="T345" s="4" t="s">
@@ -70949,13 +70951,13 @@
       <c r="P346" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q346" s="5">
+      <c r="Q346" s="7">
         <v>27241</v>
       </c>
       <c r="R346" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S346" s="5">
+      <c r="S346" s="7">
         <v>38322</v>
       </c>
       <c r="T346" s="4" t="s">
@@ -71158,13 +71160,13 @@
       <c r="P347" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q347" s="5">
+      <c r="Q347" s="7">
         <v>22935</v>
       </c>
       <c r="R347" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S347" s="5">
+      <c r="S347" s="7">
         <v>39295</v>
       </c>
       <c r="T347" s="4" t="s">
@@ -71368,13 +71370,13 @@
       <c r="P348" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q348" s="5">
+      <c r="Q348" s="7">
         <v>19725</v>
       </c>
       <c r="R348" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S348" s="5">
+      <c r="S348" s="7">
         <v>38322</v>
       </c>
       <c r="T348" s="4" t="s">
@@ -71572,13 +71574,13 @@
       <c r="P349" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q349" s="5">
+      <c r="Q349" s="7">
         <v>23763</v>
       </c>
       <c r="R349" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S349" s="5">
+      <c r="S349" s="7">
         <v>38322</v>
       </c>
       <c r="T349" s="4" t="s">
@@ -71779,13 +71781,13 @@
       <c r="P350" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q350" s="5">
+      <c r="Q350" s="7">
         <v>24863</v>
       </c>
       <c r="R350" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S350" s="5">
+      <c r="S350" s="7">
         <v>38322</v>
       </c>
       <c r="T350" s="4" t="s">
@@ -71990,13 +71992,13 @@
       <c r="P351" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q351" s="5">
+      <c r="Q351" s="7">
         <v>26864</v>
       </c>
       <c r="R351" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S351" s="5">
+      <c r="S351" s="7">
         <v>36895</v>
       </c>
       <c r="T351" s="4" t="s">
@@ -72198,13 +72200,13 @@
       <c r="P352" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q352" s="5">
+      <c r="Q352" s="7">
         <v>26157</v>
       </c>
       <c r="R352" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S352" s="5">
+      <c r="S352" s="7">
         <v>36924</v>
       </c>
       <c r="T352" s="4" t="s">
@@ -72410,13 +72412,13 @@
       <c r="P353" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q353" s="5">
+      <c r="Q353" s="7">
         <v>22561</v>
       </c>
       <c r="R353" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S353" s="5">
+      <c r="S353" s="7">
         <v>39479</v>
       </c>
       <c r="T353" s="4" t="s">
@@ -72612,13 +72614,13 @@
       <c r="P354" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q354" s="5">
+      <c r="Q354" s="7">
         <v>24184</v>
       </c>
       <c r="R354" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S354" s="5">
+      <c r="S354" s="7">
         <v>39479</v>
       </c>
       <c r="T354" s="4" t="s">
@@ -72812,13 +72814,13 @@
       <c r="P355" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q355" s="5">
+      <c r="Q355" s="7">
         <v>20970</v>
       </c>
       <c r="R355" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S355" s="5">
+      <c r="S355" s="7">
         <v>39479</v>
       </c>
       <c r="T355" s="4" t="s">
@@ -73012,13 +73014,13 @@
       <c r="P356" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q356" s="5">
+      <c r="Q356" s="7">
         <v>22447</v>
       </c>
       <c r="R356" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S356" s="5">
+      <c r="S356" s="7">
         <v>39479</v>
       </c>
       <c r="T356" s="4" t="s">
@@ -73212,13 +73214,13 @@
       <c r="P357" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q357" s="5">
+      <c r="Q357" s="7">
         <v>25444</v>
       </c>
       <c r="R357" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S357" s="5">
+      <c r="S357" s="7">
         <v>39479</v>
       </c>
       <c r="T357" s="4" t="s">
@@ -73412,13 +73414,13 @@
       <c r="P358" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q358" s="5">
+      <c r="Q358" s="7">
         <v>22227</v>
       </c>
       <c r="R358" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S358" s="5">
+      <c r="S358" s="7">
         <v>39479</v>
       </c>
       <c r="T358" s="4" t="s">
@@ -73617,13 +73619,13 @@
       <c r="P359" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q359" s="5">
+      <c r="Q359" s="7">
         <v>25466</v>
       </c>
       <c r="R359" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S359" s="5">
+      <c r="S359" s="7">
         <v>39479</v>
       </c>
       <c r="T359" s="4" t="s">
@@ -73817,13 +73819,13 @@
       <c r="P360" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q360" s="5">
+      <c r="Q360" s="7">
         <v>24278</v>
       </c>
       <c r="R360" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S360" s="5">
+      <c r="S360" s="7">
         <v>40363</v>
       </c>
       <c r="T360" s="4" t="s">
@@ -74013,13 +74015,13 @@
       <c r="P361" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q361" s="5">
+      <c r="Q361" s="7">
         <v>26695</v>
       </c>
       <c r="R361" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S361" s="5">
+      <c r="S361" s="7">
         <v>40363</v>
       </c>
       <c r="T361" s="4" t="s">
@@ -74216,13 +74218,13 @@
       <c r="P362" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q362" s="5">
+      <c r="Q362" s="7">
         <v>27929</v>
       </c>
       <c r="R362" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S362" s="5">
+      <c r="S362" s="7">
         <v>40363</v>
       </c>
       <c r="T362" s="4" t="s">
@@ -74419,13 +74421,13 @@
       <c r="P363" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q363" s="5">
+      <c r="Q363" s="7">
         <v>24822</v>
       </c>
       <c r="R363" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S363" s="5">
+      <c r="S363" s="7">
         <v>40664</v>
       </c>
       <c r="T363" s="4" t="s">
@@ -74622,13 +74624,13 @@
       <c r="P364" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q364" s="5">
+      <c r="Q364" s="7">
         <v>27433</v>
       </c>
       <c r="R364" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S364" s="5">
+      <c r="S364" s="7">
         <v>40664</v>
       </c>
       <c r="T364" s="4" t="s">
@@ -74827,13 +74829,13 @@
       <c r="P365" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q365" s="5">
+      <c r="Q365" s="7">
         <v>25337</v>
       </c>
       <c r="R365" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S365" s="5">
+      <c r="S365" s="7">
         <v>40664</v>
       </c>
       <c r="T365" s="4" t="s">
@@ -75030,13 +75032,13 @@
       <c r="P366" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q366" s="5">
+      <c r="Q366" s="7">
         <v>24733</v>
       </c>
       <c r="R366" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S366" s="5">
+      <c r="S366" s="7">
         <v>41051</v>
       </c>
       <c r="T366" s="4" t="s">
@@ -75231,13 +75233,13 @@
       <c r="P367" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q367" s="5">
+      <c r="Q367" s="7">
         <v>27572</v>
       </c>
       <c r="R367" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S367" s="5">
+      <c r="S367" s="7">
         <v>41051</v>
       </c>
       <c r="T367" s="4" t="s">
@@ -75439,13 +75441,13 @@
       <c r="P368" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q368" s="5">
+      <c r="Q368" s="7">
         <v>26374</v>
       </c>
       <c r="R368" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S368" s="5">
+      <c r="S368" s="7">
         <v>41263</v>
       </c>
       <c r="T368" s="4" t="s">
@@ -75642,13 +75644,13 @@
       <c r="P369" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q369" s="5">
+      <c r="Q369" s="7">
         <v>22979</v>
       </c>
       <c r="R369" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S369" s="5">
+      <c r="S369" s="7">
         <v>41051</v>
       </c>
       <c r="T369" s="4" t="s">
@@ -75848,13 +75850,13 @@
       <c r="P370" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q370" s="5">
+      <c r="Q370" s="7">
         <v>25186</v>
       </c>
       <c r="R370" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S370" s="5">
+      <c r="S370" s="7">
         <v>38322</v>
       </c>
       <c r="T370" s="4" t="s">
@@ -76058,13 +76060,13 @@
       <c r="P371" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q371" s="5">
+      <c r="Q371" s="7">
         <v>25983</v>
       </c>
       <c r="R371" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S371" s="5">
+      <c r="S371" s="7">
         <v>41470</v>
       </c>
       <c r="T371" s="4" t="s">
@@ -76256,13 +76258,13 @@
       <c r="P372" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q372" s="5">
+      <c r="Q372" s="7">
         <v>25726</v>
       </c>
       <c r="R372" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S372" s="5">
+      <c r="S372" s="7">
         <v>41470</v>
       </c>
       <c r="T372" s="4" t="s">
@@ -76454,13 +76456,13 @@
       <c r="P373" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q373" s="5">
+      <c r="Q373" s="7">
         <v>25656</v>
       </c>
       <c r="R373" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S373" s="5">
+      <c r="S373" s="7">
         <v>41470</v>
       </c>
       <c r="T373" s="4" t="s">
@@ -76657,13 +76659,13 @@
       <c r="P374" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q374" s="5">
+      <c r="Q374" s="7">
         <v>26839</v>
       </c>
       <c r="R374" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S374" s="5">
+      <c r="S374" s="7">
         <v>41470</v>
       </c>
       <c r="T374" s="4" t="s">
@@ -76855,13 +76857,13 @@
       <c r="P375" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q375" s="5">
+      <c r="Q375" s="7">
         <v>26397</v>
       </c>
       <c r="R375" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S375" s="5">
+      <c r="S375" s="7">
         <v>41470</v>
       </c>
       <c r="T375" s="4" t="s">
@@ -77053,13 +77055,13 @@
       <c r="P376" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q376" s="5">
+      <c r="Q376" s="7">
         <v>25865</v>
       </c>
       <c r="R376" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S376" s="5">
+      <c r="S376" s="7">
         <v>39605</v>
       </c>
       <c r="T376" s="4" t="s">
@@ -77266,13 +77268,13 @@
       <c r="P377" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q377" s="5">
+      <c r="Q377" s="7">
         <v>24813</v>
       </c>
       <c r="R377" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S377" s="5">
+      <c r="S377" s="7">
         <v>39833</v>
       </c>
       <c r="T377" s="4" t="s">
@@ -77472,13 +77474,13 @@
       <c r="P378" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q378" s="5">
+      <c r="Q378" s="7">
         <v>25721</v>
       </c>
       <c r="R378" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S378" s="5">
+      <c r="S378" s="7">
         <v>39980</v>
       </c>
       <c r="T378" s="4" t="s">
@@ -77683,13 +77685,13 @@
       <c r="P379" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q379" s="5">
+      <c r="Q379" s="7">
         <v>24006</v>
       </c>
       <c r="R379" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S379" s="5">
+      <c r="S379" s="7">
         <v>37426</v>
       </c>
       <c r="T379" s="4" t="s">
@@ -77882,13 +77884,13 @@
       <c r="P380" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q380" s="5">
+      <c r="Q380" s="7">
         <v>26349</v>
       </c>
       <c r="R380" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S380" s="5">
+      <c r="S380" s="7">
         <v>38687</v>
       </c>
       <c r="T380" s="4" t="s">
@@ -78081,13 +78083,13 @@
       <c r="P381" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q381" s="5">
+      <c r="Q381" s="7">
         <v>26193</v>
       </c>
       <c r="R381" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S381" s="5">
+      <c r="S381" s="7">
         <v>35936</v>
       </c>
       <c r="T381" s="4" t="s">
@@ -78280,13 +78282,13 @@
       <c r="P382" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q382" s="5">
+      <c r="Q382" s="7">
         <v>24848</v>
       </c>
       <c r="R382" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S382" s="5">
+      <c r="S382" s="7">
         <v>40695</v>
       </c>
       <c r="T382" s="4" t="s">
@@ -78481,13 +78483,13 @@
       <c r="P383" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q383" s="5">
+      <c r="Q383" s="7">
         <v>27702</v>
       </c>
       <c r="R383" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S383" s="5">
+      <c r="S383" s="7">
         <v>37987</v>
       </c>
       <c r="T383" s="4" t="s">
@@ -78680,13 +78682,13 @@
       <c r="P384" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q384" s="5">
+      <c r="Q384" s="7">
         <v>23289</v>
       </c>
       <c r="R384" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S384" s="5">
+      <c r="S384" s="7">
         <v>37895</v>
       </c>
       <c r="T384" s="4" t="s">
@@ -78881,13 +78883,13 @@
       <c r="P385" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q385" s="5">
+      <c r="Q385" s="7">
         <v>23719</v>
       </c>
       <c r="R385" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S385" s="5">
+      <c r="S385" s="7">
         <v>39479</v>
       </c>
       <c r="T385" s="4" t="s">
@@ -79085,13 +79087,13 @@
       <c r="P386" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q386" s="5">
+      <c r="Q386" s="7">
         <v>22761</v>
       </c>
       <c r="R386" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S386" s="5">
+      <c r="S386" s="7">
         <v>41122</v>
       </c>
       <c r="T386" s="4" t="s">
@@ -79284,13 +79286,13 @@
       <c r="P387" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q387" s="5">
+      <c r="Q387" s="7">
         <v>22262</v>
       </c>
       <c r="R387" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S387" s="5">
+      <c r="S387" s="7">
         <v>38108</v>
       </c>
       <c r="T387" s="4" t="s">
@@ -79485,13 +79487,13 @@
       <c r="P388" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q388" s="5">
+      <c r="Q388" s="7">
         <v>27354</v>
       </c>
       <c r="R388" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S388" s="5">
+      <c r="S388" s="7">
         <v>41788</v>
       </c>
       <c r="T388" s="4" t="s">
@@ -79683,13 +79685,13 @@
       <c r="P389" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q389" s="5">
+      <c r="Q389" s="7">
         <v>28808</v>
       </c>
       <c r="R389" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S389" s="5">
+      <c r="S389" s="7">
         <v>41792</v>
       </c>
       <c r="T389" s="4" t="s">
@@ -79879,13 +79881,13 @@
       <c r="P390" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q390" s="5">
+      <c r="Q390" s="7">
         <v>24072</v>
       </c>
       <c r="R390" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S390" s="5">
+      <c r="S390" s="7">
         <v>41800</v>
       </c>
       <c r="T390" s="4" t="s">
@@ -80078,13 +80080,13 @@
       <c r="P391" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q391" s="5">
+      <c r="Q391" s="7">
         <v>28502</v>
       </c>
       <c r="R391" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S391" s="5">
+      <c r="S391" s="7">
         <v>41791</v>
       </c>
       <c r="T391" s="4" t="s">
@@ -80274,13 +80276,13 @@
       <c r="P392" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q392" s="5">
+      <c r="Q392" s="7">
         <v>23239</v>
       </c>
       <c r="R392" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S392" s="5">
+      <c r="S392" s="7">
         <v>41821</v>
       </c>
       <c r="T392" s="4" t="s">
@@ -80470,13 +80472,13 @@
       <c r="P393" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q393" s="5">
+      <c r="Q393" s="7">
         <v>16546</v>
       </c>
       <c r="R393" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S393" s="5">
+      <c r="S393" s="7">
         <v>41809</v>
       </c>
       <c r="T393" s="4" t="s">
@@ -80668,13 +80670,13 @@
       <c r="P394" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q394" s="5">
+      <c r="Q394" s="7">
         <v>12691</v>
       </c>
       <c r="R394" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S394" s="5">
+      <c r="S394" s="7">
         <v>41809</v>
       </c>
       <c r="T394" s="4" t="s">
@@ -80866,13 +80868,13 @@
       <c r="P395" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q395" s="5">
+      <c r="Q395" s="7">
         <v>30589</v>
       </c>
       <c r="R395" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S395" s="5">
+      <c r="S395" s="7">
         <v>41593</v>
       </c>
       <c r="T395" s="4" t="s">
@@ -81067,13 +81069,13 @@
       <c r="P396" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q396" s="5">
+      <c r="Q396" s="7">
         <v>23611</v>
       </c>
       <c r="R396" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S396" s="5">
+      <c r="S396" s="7">
         <v>41858</v>
       </c>
       <c r="T396" s="4" t="s">
@@ -81215,6 +81217,7 @@
       <c r="CF396" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF396" xr:uid="{34FBA0CE-99CF-48A1-B058-2E79A80A7F8F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>